--- a/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
+++ b/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\PTFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\PTFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F20739-9235-4D8D-A21A-E54234E3FDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20115" windowHeight="12075"/>
+    <workbookView xWindow="20745" yWindow="315" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,23 @@
     <sheet name="HDVs, Rail" sheetId="2" r:id="rId3"/>
     <sheet name="PTFURfE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Source:</t>
   </si>
@@ -123,27 +135,6 @@
     <t>PTFURfE Percentage Transportation Fuel Use Reduction for Electricity</t>
   </si>
   <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
-    <t>Passengers</t>
-  </si>
-  <si>
-    <t>Freight</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -168,24 +159,60 @@
     <t>can be converted into work more efficiently than other fuel types.</t>
   </si>
   <si>
-    <t>Percentage Reduction (dimensionless)</t>
-  </si>
-  <si>
     <t>Aircraft and ships are assumed to be the same as rail, since they all use large engines</t>
   </si>
   <si>
     <t>intended to move heavy craft.</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>Unit: dimensioness (percentage)</t>
+  </si>
+  <si>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +237,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,7 +286,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,10 +301,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,6 +403,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -400,6 +455,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -650,61 +722,61 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -712,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -800,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -931,106 +1003,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9">
         <f>LDVs!B6</f>
         <v>0.68595041322314043</v>
       </c>
-      <c r="C2" s="9">
-        <f>LDVs!B6</f>
-        <v>0.68595041322314043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9">
         <f>$B$2</f>
         <v>0.68595041322314043</v>
       </c>
-      <c r="C3" s="9">
-        <f>$B$2</f>
-        <v>0.68595041322314043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9">
         <f>B5</f>
         <v>0.44713930348258707</v>
       </c>
-      <c r="C4" s="9">
-        <f>C5</f>
-        <v>0.44713930348258707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B5" s="9">
         <f>'HDVs, Rail'!B9</f>
         <v>0.44713930348258707</v>
       </c>
-      <c r="C5" s="9">
-        <f>B5</f>
-        <v>0.44713930348258707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" s="9">
         <f>B5</f>
         <v>0.44713930348258707</v>
       </c>
-      <c r="C6" s="9">
-        <f>C5</f>
-        <v>0.44713930348258707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9">
         <f>$B$2</f>
         <v>0.68595041322314043</v>
       </c>
-      <c r="C7" s="9">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9">
+        <f>LDVs!B6</f>
+        <v>0.68595041322314043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9">
+        <f>$B$2</f>
+        <v>0.68595041322314043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9">
+        <f>B11</f>
+        <v>0.44713930348258707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="9">
+        <f>B5</f>
+        <v>0.44713930348258707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9">
+        <f>B11</f>
+        <v>0.44713930348258707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9">
         <f>$B$2</f>
         <v>0.68595041322314043</v>
       </c>
